--- a/runs/run131/NotionalETEOutput131.xlsx
+++ b/runs/run131/NotionalETEOutput131.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER2_State_Update</t>
+    <t>Missile_ANGERMAX2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2_421.MISSILE_BRAVER2_421</t>
+    <t>MISSILE_ANGERMAX2_218.MISSILE_ANGERMAX2_218</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2</t>
+    <t>MISSILE_ANGERMAX2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1515.87946710702</v>
+        <v>-1552.578634445367</v>
       </c>
       <c r="J2">
-        <v>2031.342227605418</v>
+        <v>1923.443431853311</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1510.986913606097</v>
+        <v>-1488.983703858067</v>
       </c>
       <c r="J3">
-        <v>1895.6918208755</v>
+        <v>1941.683428351443</v>
       </c>
       <c r="K3">
-        <v>295.5212316529096</v>
+        <v>289.0549172467486</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1427.250568935125</v>
+        <v>-1472.706413641775</v>
       </c>
       <c r="J4">
-        <v>1867.535388428821</v>
+        <v>1920.102324446661</v>
       </c>
       <c r="K4">
-        <v>611.0473858973917</v>
+        <v>622.0244669549485</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1389.948696248701</v>
+        <v>-1453.847962534349</v>
       </c>
       <c r="J5">
-        <v>1942.933162643123</v>
+        <v>1894.99447648008</v>
       </c>
       <c r="K5">
-        <v>873.4831128179322</v>
+        <v>825.8091282733144</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1412.653621630117</v>
+        <v>-1395.116714851844</v>
       </c>
       <c r="J6">
-        <v>1765.453012402495</v>
+        <v>1852.557114090148</v>
       </c>
       <c r="K6">
-        <v>1139.576421717725</v>
+        <v>1143.530749254642</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1317.405728618317</v>
+        <v>-1358.091475500901</v>
       </c>
       <c r="J7">
-        <v>1749.673704208838</v>
+        <v>1737.577236578595</v>
       </c>
       <c r="K7">
-        <v>1362.619790964944</v>
+        <v>1387.34998281015</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1301.986651158197</v>
+        <v>-1367.890657692005</v>
       </c>
       <c r="J8">
-        <v>1711.685032834619</v>
+        <v>1710.807075539445</v>
       </c>
       <c r="K8">
-        <v>1639.855184721545</v>
+        <v>1602.414177020561</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.8105588584385</v>
+        <v>-104.432929040572</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1223.669745958051</v>
+        <v>-1304.408629145987</v>
       </c>
       <c r="J9">
-        <v>1698.233254959313</v>
+        <v>1630.119667035419</v>
       </c>
       <c r="K9">
-        <v>1761.28855029336</v>
+        <v>1725.370214154748</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>220.8655211120955</v>
+        <v>207.547158509825</v>
       </c>
       <c r="G10">
-        <v>-81.7522077310302</v>
+        <v>-86.778018919481</v>
       </c>
       <c r="H10">
-        <v>822.1003886578185</v>
+        <v>865.3088073619882</v>
       </c>
       <c r="I10">
-        <v>-1267.934128693726</v>
+        <v>-1218.704982785428</v>
       </c>
       <c r="J10">
-        <v>1650.53371844886</v>
+        <v>1559.320085021614</v>
       </c>
       <c r="K10">
-        <v>1955.989308683888</v>
+        <v>2080.445822618111</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>172.6975088097741</v>
+        <v>165.3335573248346</v>
       </c>
       <c r="G11">
-        <v>-69.35492852495764</v>
+        <v>-66.66236578371036</v>
       </c>
       <c r="H11">
-        <v>1107.115216732451</v>
+        <v>1026.718520251507</v>
       </c>
       <c r="I11">
-        <v>-1224.170841156196</v>
+        <v>-1176.179350247307</v>
       </c>
       <c r="J11">
-        <v>1602.327487409398</v>
+        <v>1631.711757939838</v>
       </c>
       <c r="K11">
-        <v>2099.818984180757</v>
+        <v>2106.67876230338</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>143.9363162055608</v>
+        <v>138.5084677129373</v>
       </c>
       <c r="G12">
-        <v>-52.34558263313774</v>
+        <v>-48.16988944797051</v>
       </c>
       <c r="H12">
-        <v>1190.794859181469</v>
+        <v>1156.310912445445</v>
       </c>
       <c r="I12">
-        <v>-1167.683002452833</v>
+        <v>-1209.306900945666</v>
       </c>
       <c r="J12">
-        <v>1579.996769477334</v>
+        <v>1563.83452914947</v>
       </c>
       <c r="K12">
-        <v>2452.160349339175</v>
+        <v>2428.466413669554</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.0816553043686</v>
+        <v>119.8354942339127</v>
       </c>
       <c r="G13">
-        <v>-33.76447863633097</v>
+        <v>-33.44203837415052</v>
       </c>
       <c r="H13">
-        <v>1238.39021085892</v>
+        <v>1230.84919372717</v>
       </c>
       <c r="I13">
-        <v>-1074.84267838203</v>
+        <v>-1131.463208237278</v>
       </c>
       <c r="J13">
-        <v>1422.264588839091</v>
+        <v>1486.933351294887</v>
       </c>
       <c r="K13">
-        <v>2453.199524263236</v>
+        <v>2435.891041367883</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>110.8920370083113</v>
+        <v>109.3966165198133</v>
       </c>
       <c r="G14">
-        <v>-18.00029937023946</v>
+        <v>-17.42860198442314</v>
       </c>
       <c r="H14">
-        <v>1281.542912168279</v>
+        <v>1383.146085146243</v>
       </c>
       <c r="I14">
-        <v>-1102.028290266281</v>
+        <v>-1117.599576174962</v>
       </c>
       <c r="J14">
-        <v>1458.33358760392</v>
+        <v>1476.615427068632</v>
       </c>
       <c r="K14">
-        <v>2731.19067429683</v>
+        <v>2643.054502668856</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.5369409976811</v>
+        <v>102.4693702353222</v>
       </c>
       <c r="G15">
-        <v>-0.9148571150807573</v>
+        <v>-0.9373466758706365</v>
       </c>
       <c r="H15">
-        <v>1359.408271259884</v>
+        <v>1409.263719822083</v>
       </c>
       <c r="I15">
-        <v>-1013.908996355159</v>
+        <v>-1086.892491339029</v>
       </c>
       <c r="J15">
-        <v>1337.062720222638</v>
+        <v>1355.721542239631</v>
       </c>
       <c r="K15">
-        <v>2764.787158615119</v>
+        <v>2728.767540091937</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.37414938787288</v>
+        <v>93.46515903042391</v>
       </c>
       <c r="G16">
-        <v>16.30922925858391</v>
+        <v>14.90089862000181</v>
       </c>
       <c r="H16">
-        <v>1403.434843775577</v>
+        <v>1489.241869384574</v>
       </c>
       <c r="I16">
-        <v>-1020.762298774257</v>
+        <v>-974.4111805190595</v>
       </c>
       <c r="J16">
-        <v>1317.217414291453</v>
+        <v>1343.818018389683</v>
       </c>
       <c r="K16">
-        <v>2772.335597748235</v>
+        <v>2772.677124537645</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.90465624804075</v>
+        <v>85.80677978007488</v>
       </c>
       <c r="G17">
-        <v>33.47177653085469</v>
+        <v>31.42851254883332</v>
       </c>
       <c r="H17">
-        <v>1462.613097642417</v>
+        <v>1405.905863810115</v>
       </c>
       <c r="I17">
-        <v>-983.1626148134832</v>
+        <v>-983.4827999742721</v>
       </c>
       <c r="J17">
-        <v>1258.454255433282</v>
+        <v>1304.998018841088</v>
       </c>
       <c r="K17">
-        <v>3077.079728685964</v>
+        <v>3069.130279072973</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.34817588008683</v>
+        <v>82.18671372616448</v>
       </c>
       <c r="G18">
-        <v>50.33349844732597</v>
+        <v>47.9699000618081</v>
       </c>
       <c r="H18">
-        <v>1566.199875390071</v>
+        <v>1486.838133878475</v>
       </c>
       <c r="I18">
-        <v>-952.4438410020769</v>
+        <v>-931.6373731426019</v>
       </c>
       <c r="J18">
-        <v>1165.114984094435</v>
+        <v>1258.868284959288</v>
       </c>
       <c r="K18">
-        <v>3023.981070860292</v>
+        <v>3174.267713067902</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.96881003952917</v>
+        <v>76.63777653443761</v>
       </c>
       <c r="G19">
-        <v>68.13552484085712</v>
+        <v>62.95762283188295</v>
       </c>
       <c r="H19">
-        <v>1585.945388576263</v>
+        <v>1465.775484213139</v>
       </c>
       <c r="I19">
-        <v>-839.8545974453791</v>
+        <v>-916.1603595087996</v>
       </c>
       <c r="J19">
-        <v>1200.553173238669</v>
+        <v>1224.038935739693</v>
       </c>
       <c r="K19">
-        <v>3195.923329965383</v>
+        <v>3031.498831069286</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.97014656117028</v>
+        <v>75.23991594095008</v>
       </c>
       <c r="G20">
-        <v>81.40504556767314</v>
+        <v>81.7499273808229</v>
       </c>
       <c r="H20">
-        <v>1530.551862581402</v>
+        <v>1547.445804397543</v>
       </c>
       <c r="I20">
-        <v>-826.8303121743669</v>
+        <v>-867.8467691321881</v>
       </c>
       <c r="J20">
-        <v>1167.951209651492</v>
+        <v>1118.313120302267</v>
       </c>
       <c r="K20">
-        <v>3088.655071253024</v>
+        <v>3027.652457946829</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.51356583329986</v>
+        <v>74.32410991386564</v>
       </c>
       <c r="G21">
-        <v>102.5394740528046</v>
+        <v>93.84279972263757</v>
       </c>
       <c r="H21">
-        <v>1591.493940965586</v>
+        <v>1576.188776006882</v>
       </c>
       <c r="I21">
-        <v>-827.6324355218223</v>
+        <v>-821.9658237388284</v>
       </c>
       <c r="J21">
-        <v>1128.936055476871</v>
+        <v>1065.931551911995</v>
       </c>
       <c r="K21">
-        <v>3029.909381505304</v>
+        <v>3104.843602613714</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.23256906672734</v>
+        <v>71.26766488606778</v>
       </c>
       <c r="G22">
-        <v>120.0428204067887</v>
+        <v>116.5499554562553</v>
       </c>
       <c r="H22">
-        <v>1647.424992886909</v>
+        <v>1603.301856466336</v>
       </c>
       <c r="I22">
-        <v>-749.2430094103055</v>
+        <v>-738.5648476183691</v>
       </c>
       <c r="J22">
-        <v>984.4203438664721</v>
+        <v>980.1220578557674</v>
       </c>
       <c r="K22">
-        <v>3216.066099800101</v>
+        <v>3209.589986042632</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>65.12973938135272</v>
+        <v>66.67838423534342</v>
       </c>
       <c r="G23">
-        <v>132.3985913520674</v>
+        <v>133.3686349977104</v>
       </c>
       <c r="H23">
-        <v>1715.7088603578</v>
+        <v>1679.952629810796</v>
       </c>
       <c r="I23">
-        <v>-700.7302847578597</v>
+        <v>-694.7975525053691</v>
       </c>
       <c r="J23">
-        <v>975.2684513016244</v>
+        <v>1018.814532658055</v>
       </c>
       <c r="K23">
-        <v>3354.047556532419</v>
+        <v>3078.340851450599</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.02348350765659</v>
+        <v>64.46716486130025</v>
       </c>
       <c r="G24">
-        <v>148.3028809043927</v>
+        <v>152.3008667740477</v>
       </c>
       <c r="H24">
-        <v>1734.082544438671</v>
+        <v>1640.602603683717</v>
       </c>
       <c r="I24">
-        <v>-667.7999885659125</v>
+        <v>-676.2367403880029</v>
       </c>
       <c r="J24">
-        <v>944.0852719215018</v>
+        <v>938.8021924975961</v>
       </c>
       <c r="K24">
-        <v>3045.231236549203</v>
+        <v>3084.921017147771</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.97599196605641</v>
+        <v>61.52351562799894</v>
       </c>
       <c r="G25">
-        <v>165.218492717086</v>
+        <v>158.6554579381079</v>
       </c>
       <c r="H25">
-        <v>1633.120588907752</v>
+        <v>1673.81742384616</v>
       </c>
       <c r="I25">
-        <v>-596.1525945895362</v>
+        <v>-626.0232740972911</v>
       </c>
       <c r="J25">
-        <v>871.4869933197209</v>
+        <v>855.1989284259373</v>
       </c>
       <c r="K25">
-        <v>3236.328187409782</v>
+        <v>3190.389044363796</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.38417984623214</v>
+        <v>59.73510633431242</v>
       </c>
       <c r="G26">
-        <v>174.5967515959645</v>
+        <v>185.5710760122842</v>
       </c>
       <c r="H26">
-        <v>1702.766356526931</v>
+        <v>1689.876626166883</v>
       </c>
       <c r="I26">
-        <v>-572.9272141037683</v>
+        <v>-563.9677444995094</v>
       </c>
       <c r="J26">
-        <v>866.0129123583836</v>
+        <v>847.6973605619567</v>
       </c>
       <c r="K26">
-        <v>3064.321508123008</v>
+        <v>3200.024548627819</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.5205887056284</v>
+        <v>57.80116214655776</v>
       </c>
       <c r="G27">
-        <v>190.7336559494528</v>
+        <v>199.7473779630116</v>
       </c>
       <c r="H27">
-        <v>1718.301317655885</v>
+        <v>1673.362670201646</v>
       </c>
       <c r="I27">
-        <v>-503.9613581459029</v>
+        <v>-479.3539597508795</v>
       </c>
       <c r="J27">
-        <v>763.7676609215624</v>
+        <v>762.1969046286246</v>
       </c>
       <c r="K27">
-        <v>2955.230268521801</v>
+        <v>3075.993293868161</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.7994306864369</v>
+        <v>57.35428726704249</v>
       </c>
       <c r="G28">
-        <v>221.7369464280891</v>
+        <v>205.8165183800897</v>
       </c>
       <c r="H28">
-        <v>1667.816690778827</v>
+        <v>1759.137541907957</v>
       </c>
       <c r="I28">
-        <v>-454.3523263168976</v>
+        <v>-433.3185349142686</v>
       </c>
       <c r="J28">
-        <v>748.9402430172951</v>
+        <v>724.5226520991254</v>
       </c>
       <c r="K28">
-        <v>2874.127389303335</v>
+        <v>2854.665434229508</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.50760572417086</v>
+        <v>54.28079205250455</v>
       </c>
       <c r="G29">
-        <v>222.0916373985355</v>
+        <v>224.1409111578931</v>
       </c>
       <c r="H29">
-        <v>1793.323419885725</v>
+        <v>1740.353541519567</v>
       </c>
       <c r="I29">
-        <v>-378.8980254656989</v>
+        <v>-367.2051172792087</v>
       </c>
       <c r="J29">
-        <v>701.2131068856525</v>
+        <v>681.6697645730253</v>
       </c>
       <c r="K29">
-        <v>2747.084566222324</v>
+        <v>2749.959768172255</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.30965955855545</v>
+        <v>55.52635148559975</v>
       </c>
       <c r="G30">
-        <v>236.2513797600967</v>
+        <v>256.3985510676871</v>
       </c>
       <c r="H30">
-        <v>1696.742191432903</v>
+        <v>1795.519680270786</v>
       </c>
       <c r="I30">
-        <v>-314.1991454022266</v>
+        <v>-331.1876499748041</v>
       </c>
       <c r="J30">
-        <v>650.668581821125</v>
+        <v>643.7597699053862</v>
       </c>
       <c r="K30">
-        <v>2716.122524558817</v>
+        <v>2725.148754634152</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.48685483362105</v>
+        <v>51.41254242392996</v>
       </c>
       <c r="G31">
-        <v>266.6175415394211</v>
+        <v>268.1626862680365</v>
       </c>
       <c r="H31">
-        <v>1753.605108162288</v>
+        <v>1817.688718661887</v>
       </c>
       <c r="I31">
-        <v>-275.5339586598652</v>
+        <v>-275.7141652734647</v>
       </c>
       <c r="J31">
-        <v>571.9854585379315</v>
+        <v>594.9996979510322</v>
       </c>
       <c r="K31">
-        <v>2543.504916307312</v>
+        <v>2539.557701425181</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.954868479968</v>
+        <v>51.98278461544762</v>
       </c>
       <c r="G32">
-        <v>289.8008416413891</v>
+        <v>289.7505908808388</v>
       </c>
       <c r="H32">
-        <v>1752.228980329118</v>
+        <v>1816.80234761607</v>
       </c>
       <c r="I32">
-        <v>-211.0200704629129</v>
+        <v>-198.7420107120084</v>
       </c>
       <c r="J32">
-        <v>549.0019878155866</v>
+        <v>558.7524264123401</v>
       </c>
       <c r="K32">
-        <v>2640.103414039623</v>
+        <v>2409.524597128287</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.51499249342191</v>
+        <v>51.90641133919503</v>
       </c>
       <c r="G33">
-        <v>296.8789181591375</v>
+        <v>299.3210905723847</v>
       </c>
       <c r="H33">
-        <v>1826.719742615281</v>
+        <v>1877.540201826844</v>
       </c>
       <c r="I33">
-        <v>-151.8287857291623</v>
+        <v>-141.8023353321706</v>
       </c>
       <c r="J33">
-        <v>504.2268108028418</v>
+        <v>497.9353224474266</v>
       </c>
       <c r="K33">
-        <v>2422.462175984302</v>
+        <v>2458.671872450226</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.22673989581696</v>
+        <v>47.74703669256724</v>
       </c>
       <c r="G34">
-        <v>299.7788598764874</v>
+        <v>303.7964268213688</v>
       </c>
       <c r="H34">
-        <v>1732.956318035263</v>
+        <v>1725.727324912892</v>
       </c>
       <c r="I34">
-        <v>-85.95474732952664</v>
+        <v>-80.1523664440151</v>
       </c>
       <c r="J34">
-        <v>451.5767619273988</v>
+        <v>430.3560214214726</v>
       </c>
       <c r="K34">
-        <v>2289.800304509112</v>
+        <v>2218.783064091087</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.09573827389601</v>
+        <v>49.69194628374635</v>
       </c>
       <c r="G35">
-        <v>322.6362094271693</v>
+        <v>341.1287752247844</v>
       </c>
       <c r="H35">
-        <v>1854.518402417696</v>
+        <v>1884.525131748244</v>
       </c>
       <c r="I35">
-        <v>-18.47453921008329</v>
+        <v>-18.044495003344</v>
       </c>
       <c r="J35">
-        <v>401.8006555154168</v>
+        <v>391.5811990672764</v>
       </c>
       <c r="K35">
-        <v>2046.460472348184</v>
+        <v>2075.861294474565</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.06984219228391</v>
+        <v>46.03040263255126</v>
       </c>
       <c r="G36">
-        <v>355.3246864804905</v>
+        <v>330.6456303137754</v>
       </c>
       <c r="H36">
-        <v>1748.64143133551</v>
+        <v>1782.117196243925</v>
       </c>
       <c r="I36">
-        <v>47.18654901073405</v>
+        <v>49.64791199116411</v>
       </c>
       <c r="J36">
-        <v>359.6309932838379</v>
+        <v>356.1793438939204</v>
       </c>
       <c r="K36">
-        <v>1842.061463274328</v>
+        <v>1777.107521181943</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.78181293839238</v>
+        <v>48.15238958703023</v>
       </c>
       <c r="G37">
-        <v>364.52079578515</v>
+        <v>363.7599400442093</v>
       </c>
       <c r="H37">
-        <v>1862.081654840041</v>
+        <v>1833.711061219999</v>
       </c>
       <c r="I37">
-        <v>113.2779806021891</v>
+        <v>119.9743938560792</v>
       </c>
       <c r="J37">
-        <v>297.011802526198</v>
+        <v>300.4779326316379</v>
       </c>
       <c r="K37">
-        <v>1560.983542427872</v>
+        <v>1544.74793438273</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.14461223425029</v>
+        <v>47.81651109365162</v>
       </c>
       <c r="G38">
-        <v>366.8732522160985</v>
+        <v>390.0150753844835</v>
       </c>
       <c r="H38">
-        <v>1845.381535531371</v>
+        <v>1854.943570077489</v>
       </c>
       <c r="I38">
-        <v>181.0009015783939</v>
+        <v>189.747534291938</v>
       </c>
       <c r="J38">
-        <v>238.7214650585501</v>
+        <v>255.2351374005996</v>
       </c>
       <c r="K38">
-        <v>1355.134827025018</v>
+        <v>1337.550854064524</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.76580685797502</v>
+        <v>46.57553573943533</v>
       </c>
       <c r="G39">
-        <v>401.5653600740931</v>
+        <v>381.7428992247438</v>
       </c>
       <c r="H39">
-        <v>1800.037923282435</v>
+        <v>1840.038147079831</v>
       </c>
       <c r="I39">
-        <v>265.0003828527051</v>
+        <v>261.485640696464</v>
       </c>
       <c r="J39">
-        <v>204.3455823969541</v>
+        <v>208.002172016268</v>
       </c>
       <c r="K39">
-        <v>1145.685166016626</v>
+        <v>1105.588998538359</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.97815229891704</v>
+        <v>43.47607004925288</v>
       </c>
       <c r="G40">
-        <v>413.2901183923869</v>
+        <v>406.0614308193162</v>
       </c>
       <c r="H40">
-        <v>1841.812497959923</v>
+        <v>1953.148088668985</v>
       </c>
       <c r="I40">
-        <v>322.7656358140986</v>
+        <v>329.2452394804749</v>
       </c>
       <c r="J40">
-        <v>143.73211988623</v>
+        <v>157.9355075769496</v>
       </c>
       <c r="K40">
-        <v>905.7375412524099</v>
+        <v>888.042739312331</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.73336698997055</v>
+        <v>42.31338939308083</v>
       </c>
       <c r="G41">
-        <v>426.2398893982054</v>
+        <v>441.4993912345336</v>
       </c>
       <c r="H41">
-        <v>1947.191232871982</v>
+        <v>1936.207381237488</v>
       </c>
       <c r="I41">
-        <v>410.6787628759525</v>
+        <v>406.6828127816876</v>
       </c>
       <c r="J41">
-        <v>105.7861142351786</v>
+        <v>100.3883513714195</v>
       </c>
       <c r="K41">
-        <v>622.5980425691292</v>
+        <v>641.0970628604397</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.06390480826834</v>
+        <v>43.09444161339905</v>
       </c>
       <c r="G42">
-        <v>432.7259263002422</v>
+        <v>428.7126044765745</v>
       </c>
       <c r="H42">
-        <v>1898.224901493152</v>
+        <v>1890.47446059026</v>
       </c>
       <c r="I42">
-        <v>479.0077771266914</v>
+        <v>475.9956801346673</v>
       </c>
       <c r="J42">
-        <v>55.02218317963086</v>
+        <v>52.64339824373211</v>
       </c>
       <c r="K42">
-        <v>351.7040547142259</v>
+        <v>344.4101098966651</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.12452414091614</v>
+        <v>40.57945117907219</v>
       </c>
       <c r="G43">
-        <v>472.6611964521222</v>
+        <v>459.3727403273309</v>
       </c>
       <c r="H43">
-        <v>1969.425509943168</v>
+        <v>1901.5230448395</v>
       </c>
       <c r="I43">
-        <v>534.4307597499752</v>
+        <v>552.3317757493894</v>
       </c>
       <c r="J43">
-        <v>5.123158348596745</v>
+        <v>5.240239500542154</v>
       </c>
       <c r="K43">
-        <v>32.39003211686585</v>
+        <v>34.54545836748538</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.08987530919059</v>
+        <v>40.2872125519124</v>
       </c>
       <c r="G44">
-        <v>485.9322509743291</v>
+        <v>490.6454953436086</v>
       </c>
       <c r="H44">
-        <v>1918.355485337388</v>
+        <v>1993.839203567153</v>
       </c>
       <c r="I44">
-        <v>660.0974940164117</v>
+        <v>625.6635209458265</v>
       </c>
       <c r="J44">
-        <v>-44.14297816842404</v>
+        <v>-42.57649364912283</v>
       </c>
       <c r="K44">
-        <v>-292.3020873502338</v>
+        <v>-277.7007151336846</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.04104684195</v>
+        <v>40.35985129258373</v>
       </c>
       <c r="G45">
-        <v>492.7016710434163</v>
+        <v>512.8755878695265</v>
       </c>
       <c r="H45">
-        <v>1898.402678568676</v>
+        <v>1960.882338878096</v>
       </c>
       <c r="I45">
-        <v>704.9224482692966</v>
+        <v>731.2142925344742</v>
       </c>
       <c r="J45">
-        <v>-91.84489205672168</v>
+        <v>-90.68351865357454</v>
       </c>
       <c r="K45">
-        <v>-612.4325398413597</v>
+        <v>-635.6093721531852</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.26625269509132</v>
+        <v>42.25824039748172</v>
       </c>
       <c r="G46">
-        <v>536.1514092885603</v>
+        <v>487.7549745286252</v>
       </c>
       <c r="H46">
-        <v>1876.445463180338</v>
+        <v>1936.135367248362</v>
       </c>
       <c r="I46">
-        <v>806.5692590596273</v>
+        <v>779.358410729218</v>
       </c>
       <c r="J46">
-        <v>-145.4801852669033</v>
+        <v>-145.3294497118924</v>
       </c>
       <c r="K46">
-        <v>-968.5416947136682</v>
+        <v>-963.0190590918609</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.24864055514734</v>
+        <v>39.67582163489018</v>
       </c>
       <c r="G47">
-        <v>529.3046986277918</v>
+        <v>515.4253184650778</v>
       </c>
       <c r="H47">
-        <v>1858.345770332797</v>
+        <v>1862.096775879931</v>
       </c>
       <c r="I47">
-        <v>901.3551213471217</v>
+        <v>927.2982948189772</v>
       </c>
       <c r="J47">
-        <v>-186.4212425098477</v>
+        <v>-193.2379410817207</v>
       </c>
       <c r="K47">
-        <v>-1378.205141393097</v>
+        <v>-1347.867727905542</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.71440891742972</v>
+        <v>39.37946595869555</v>
       </c>
       <c r="G48">
-        <v>570.3832492390043</v>
+        <v>549.368620873632</v>
       </c>
       <c r="H48">
-        <v>1864.653468990288</v>
+        <v>1986.044176884824</v>
       </c>
       <c r="I48">
-        <v>995.8300830668969</v>
+        <v>948.2566938289772</v>
       </c>
       <c r="J48">
-        <v>-236.2301828251194</v>
+        <v>-247.5127110432576</v>
       </c>
       <c r="K48">
-        <v>-1700.376775092859</v>
+        <v>-1625.259445879362</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.93648124733382</v>
+        <v>37.65332142511379</v>
       </c>
       <c r="G49">
-        <v>564.6050959273958</v>
+        <v>578.7333870871988</v>
       </c>
       <c r="H49">
-        <v>1960.497891623537</v>
+        <v>2045.272052371449</v>
       </c>
       <c r="I49">
-        <v>1058.643191715925</v>
+        <v>1055.437266334564</v>
       </c>
       <c r="J49">
-        <v>-299.2387840290464</v>
+        <v>-278.3795530288594</v>
       </c>
       <c r="K49">
-        <v>-2028.863017862477</v>
+        <v>-2010.831851415059</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.56322089571867</v>
+        <v>38.23060708109547</v>
       </c>
       <c r="G50">
-        <v>593.424480704799</v>
+        <v>586.9373577381658</v>
       </c>
       <c r="H50">
-        <v>2015.031839199825</v>
+        <v>1992.851453381011</v>
       </c>
       <c r="I50">
-        <v>1217.508372914369</v>
+        <v>1114.224114697972</v>
       </c>
       <c r="J50">
-        <v>-348.0386937427282</v>
+        <v>-329.581385268244</v>
       </c>
       <c r="K50">
-        <v>-2588.726138445109</v>
+        <v>-2581.418064079764</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.48241216620671</v>
+        <v>36.65497890711285</v>
       </c>
       <c r="G51">
-        <v>590.5756955455954</v>
+        <v>573.7749178719703</v>
       </c>
       <c r="H51">
-        <v>2019.70038667289</v>
+        <v>2036.062366088674</v>
       </c>
       <c r="I51">
-        <v>1209.936322391033</v>
+        <v>1235.088763123571</v>
       </c>
       <c r="J51">
-        <v>-382.4645677802021</v>
+        <v>-388.1020958202945</v>
       </c>
       <c r="K51">
-        <v>-2898.158637280978</v>
+        <v>-2858.221237829188</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.81237940171601</v>
+        <v>38.61996269330331</v>
       </c>
       <c r="G52">
-        <v>615.8227609009255</v>
+        <v>589.4327984995064</v>
       </c>
       <c r="H52">
-        <v>1880.915450798051</v>
+        <v>1940.36733202542</v>
       </c>
       <c r="I52">
-        <v>1299.434242881638</v>
+        <v>1345.127504201136</v>
       </c>
       <c r="J52">
-        <v>-427.4964218547635</v>
+        <v>-453.9025711559648</v>
       </c>
       <c r="K52">
-        <v>-3354.599134258903</v>
+        <v>-3464.487792258771</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.58688332005658</v>
+        <v>36.20692031272388</v>
       </c>
       <c r="G53">
-        <v>634.1335617937463</v>
+        <v>624.7687987790249</v>
       </c>
       <c r="H53">
-        <v>1894.733184386972</v>
+        <v>1906.690707310566</v>
       </c>
       <c r="I53">
-        <v>1467.562140196724</v>
+        <v>1527.770174812833</v>
       </c>
       <c r="J53">
-        <v>-496.0161199113917</v>
+        <v>-492.9378906673336</v>
       </c>
       <c r="K53">
-        <v>-3878.725096548525</v>
+        <v>-3914.446430470761</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.94703847123591</v>
+        <v>34.87604362390972</v>
       </c>
       <c r="G54">
-        <v>622.870070496485</v>
+        <v>624.7745894685414</v>
       </c>
       <c r="H54">
-        <v>1896.535069504968</v>
+        <v>1913.807787334545</v>
       </c>
       <c r="I54">
-        <v>1578.880298297871</v>
+        <v>1491.673717846634</v>
       </c>
       <c r="J54">
-        <v>-538.9733858802448</v>
+        <v>-549.1534941562034</v>
       </c>
       <c r="K54">
-        <v>-4145.67841667662</v>
+        <v>-4294.037901266472</v>
       </c>
     </row>
   </sheetData>
